--- a/resultados/resultados_221201.xlsx
+++ b/resultados/resultados_221201.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ufranca/Documents/Dropbox/other_projects/FIA-Ajepi/Mundial2022/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F3C7EAB-A9DA-E448-B81E-DE875462E311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6D1015-99C8-604C-B789-C65D6F4146EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="500" windowWidth="26480" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="500" windowWidth="26480" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="B207" sqref="B207:B222"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224:B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5213,14 +5213,14 @@
       </c>
       <c r="D189">
         <f>D172+E189</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E189">
         <f>3*F189+G189</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -5238,14 +5238,14 @@
       </c>
       <c r="D190">
         <f t="shared" ref="D190:D205" si="20">D173+E190</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E190">
         <f t="shared" ref="E190:E205" si="21">3*F190+G190</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -5638,11 +5638,17 @@
       </c>
       <c r="D206">
         <f>D189+E206</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E206">
         <f>3*F206+G206</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -5657,11 +5663,17 @@
       </c>
       <c r="D207">
         <f t="shared" ref="D207:D222" si="22">D190+E207</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E207">
         <f t="shared" ref="E207:E222" si="23">3*F207+G207</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -5676,14 +5688,20 @@
       </c>
       <c r="D208">
         <f t="shared" si="22"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E208">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>23</v>
       </c>
@@ -5695,14 +5713,20 @@
       </c>
       <c r="D209">
         <f t="shared" si="22"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E209">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -5714,14 +5738,20 @@
       </c>
       <c r="D210">
         <f t="shared" si="22"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E210">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>20</v>
       </c>
@@ -5739,8 +5769,14 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>21</v>
       </c>
@@ -5752,14 +5788,20 @@
       </c>
       <c r="D212">
         <f t="shared" si="22"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E212">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -5771,14 +5813,20 @@
       </c>
       <c r="D213">
         <f t="shared" si="22"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E213">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -5790,14 +5838,20 @@
       </c>
       <c r="D214">
         <f t="shared" si="22"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E214">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>9</v>
       </c>
@@ -5809,14 +5863,20 @@
       </c>
       <c r="D215">
         <f t="shared" si="22"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E215">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>18</v>
       </c>
@@ -5828,14 +5888,20 @@
       </c>
       <c r="D216">
         <f t="shared" si="22"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E216">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>10</v>
       </c>
@@ -5847,14 +5913,20 @@
       </c>
       <c r="D217">
         <f t="shared" si="22"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E217">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -5866,14 +5938,20 @@
       </c>
       <c r="D218">
         <f t="shared" si="22"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E218">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>12</v>
       </c>
@@ -5885,14 +5963,20 @@
       </c>
       <c r="D219">
         <f t="shared" si="22"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E219">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>13</v>
       </c>
@@ -5904,14 +5988,20 @@
       </c>
       <c r="D220">
         <f t="shared" si="22"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E220">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -5923,14 +6013,20 @@
       </c>
       <c r="D221">
         <f t="shared" si="22"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E221">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>15</v>
       </c>
@@ -5942,10 +6038,339 @@
       </c>
       <c r="D222">
         <f t="shared" si="22"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E222">
         <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>19</v>
+      </c>
+      <c r="B223">
+        <v>13</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <f>D206+E223</f>
+        <v>26</v>
+      </c>
+      <c r="E223">
+        <f>3*F223+G223</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224">
+        <v>13</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <f t="shared" ref="D224:D239" si="24">D207+E224</f>
+        <v>22</v>
+      </c>
+      <c r="E224">
+        <f t="shared" ref="E224:E239" si="25">3*F224+G224</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>22</v>
+      </c>
+      <c r="B225">
+        <v>13</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="24"/>
+        <v>30</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>23</v>
+      </c>
+      <c r="B226">
+        <v>13</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="24"/>
+        <v>30</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227">
+        <v>13</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="24"/>
+        <v>26</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>20</v>
+      </c>
+      <c r="B228">
+        <v>13</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="24"/>
+        <v>18</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>21</v>
+      </c>
+      <c r="B229">
+        <v>13</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230">
+        <v>13</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="24"/>
+        <v>30</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>8</v>
+      </c>
+      <c r="B231">
+        <v>13</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="24"/>
+        <v>32</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>9</v>
+      </c>
+      <c r="B232">
+        <v>13</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="24"/>
+        <v>36</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>18</v>
+      </c>
+      <c r="B233">
+        <v>13</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="24"/>
+        <v>29</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234">
+        <v>13</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>11</v>
+      </c>
+      <c r="B235">
+        <v>13</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="24"/>
+        <v>32</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236">
+        <v>13</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="24"/>
+        <v>27</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>13</v>
+      </c>
+      <c r="B237">
+        <v>13</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="24"/>
+        <v>42</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>14</v>
+      </c>
+      <c r="B238">
+        <v>13</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="24"/>
+        <v>27</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>15</v>
+      </c>
+      <c r="B239">
+        <v>13</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="24"/>
+        <v>27</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
